--- a/biology/Botanique/Pyrostegia/Pyrostegia.xlsx
+++ b/biology/Botanique/Pyrostegia/Pyrostegia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrostegia est un genre de plantes de la famille des Bignoniacées, originaire du Brésil, Paraguay, Bolivie, Argentine et Uruguay.
 Ce sont des lianes rampantes vivaces à souche ligneuse atteignant 4 à 6 mètres de longueur. Les feuilles sont trifoliées avec une texture de cuir. Les fleurs sont tubulaires de 4 à 6 cm de longueur. Le fruit allongé mesure jusqu'à 30 cm de long. Les fleurs apparaissent en hiver alors que la plupart des autres espèces sont en repos.
@@ -513,12 +525,48 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
-Pyrostegia venusta (Ker-Gawl.) Miers
-Principales espèces
-Pyrostegia acuminata
+Pyrostegia venusta (Ker-Gawl.) Miers</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pyrostegia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pyrostegia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pyrostegia acuminata
 Pyrostegia amabilis
 Pyrostegia cinerea
 Pyrostegia dichotoma
